--- a/document/tcs (2).xlsx
+++ b/document/tcs (2).xlsx
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
